--- a/5th/theme_3/1/data/data.xlsx
+++ b/5th/theme_3/1/data/data.xlsx
@@ -5,21 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryoga/Documents/ClassExperiment/5th/theme_3/1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41809707-344B-824D-92DB-741B1ECF49F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435C0BAE-8A47-4744-B0FA-F2D17C7808F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="22160" windowHeight="14840" xr2:uid="{169A5627-D179-7247-939C-5E11FF30B5AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$E$66:$E$84</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$66:$F$84</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>4-2</t>
     <phoneticPr fontId="1"/>
@@ -203,6 +199,17 @@
     <t>rad</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>角度[deg]</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発振強度[mV]</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -503,15 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -524,14 +522,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -571,6 +563,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1638,8 +1645,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4925" y="1772567"/>
-          <a:ext cx="945877" cy="933661"/>
+          <a:off x="4925" y="1791583"/>
+          <a:ext cx="945877" cy="941811"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1858,8 +1865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4765748" y="1776182"/>
-          <a:ext cx="1015359" cy="947188"/>
+          <a:off x="4781069" y="1795198"/>
+          <a:ext cx="1019597" cy="955338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3EF441-79BA-0641-BE25-7D61F41AF8C8}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="124" zoomScaleNormal="132" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2452,93 +2459,93 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" ht="21" thickBot="1">
       <c r="B22" s="5"/>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="8">
         <v>2</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>3</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>1</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15">
+      <c r="A24" s="26"/>
+      <c r="B24" s="11">
         <v>2</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15">
+      <c r="A25" s="26"/>
+      <c r="B25" s="11">
         <v>3</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" thickBot="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12">
+      <c r="A26" s="27"/>
+      <c r="B26" s="9">
         <v>4</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="28" spans="1:6">
       <c r="C28" s="4"/>
@@ -2595,6 +2602,12 @@
       </c>
     </row>
     <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>28</v>
       </c>
@@ -2616,15 +2629,15 @@
         <v>13</v>
       </c>
       <c r="D66" s="1">
-        <f>A66*PI()/180</f>
+        <f t="shared" ref="D66:D84" si="1">A66*PI()/180</f>
         <v>0</v>
       </c>
       <c r="E66" s="1">
-        <f>B66*SIN(D66)</f>
+        <f t="shared" ref="E66:E84" si="2">B66*SIN(D66)</f>
         <v>0</v>
       </c>
       <c r="F66" s="1">
-        <f>B66*COS(D66)</f>
+        <f t="shared" ref="F66:F84" si="3">B66*COS(D66)</f>
         <v>555</v>
       </c>
     </row>
@@ -2639,15 +2652,15 @@
         <v>13</v>
       </c>
       <c r="D67" s="1">
-        <f>A67*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>8.7266462599716474E-2</v>
       </c>
       <c r="E67" s="1">
-        <f>B67*SIN(D67)</f>
+        <f t="shared" si="2"/>
         <v>44.885207515043959</v>
       </c>
       <c r="F67" s="1">
-        <f>B67*COS(D67)</f>
+        <f t="shared" si="3"/>
         <v>513.04026951724893</v>
       </c>
     </row>
@@ -2662,15 +2675,15 @@
         <v>13</v>
       </c>
       <c r="D68" s="1">
-        <f>A68*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="E68" s="1">
-        <f>B68*SIN(D68)</f>
+        <f t="shared" si="2"/>
         <v>76.405198173449349</v>
       </c>
       <c r="F68" s="1">
-        <f>B68*COS(D68)</f>
+        <f t="shared" si="3"/>
         <v>433.31541132537154</v>
       </c>
     </row>
@@ -2685,15 +2698,15 @@
         <v>13</v>
       </c>
       <c r="D69" s="1">
-        <f>A69*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.26179938779914941</v>
       </c>
       <c r="E69" s="1">
-        <f>B69*SIN(D69)</f>
+        <f t="shared" si="2"/>
         <v>83.339732523011676</v>
       </c>
       <c r="F69" s="1">
-        <f>B69*COS(D69)</f>
+        <f t="shared" si="3"/>
         <v>311.02811606507998</v>
       </c>
     </row>
@@ -2708,15 +2721,15 @@
         <v>13</v>
       </c>
       <c r="D70" s="1">
-        <f>A70*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="E70" s="1">
-        <f>B70*SIN(D70)</f>
+        <f t="shared" si="2"/>
         <v>81.058773968183488</v>
       </c>
       <c r="F70" s="1">
-        <f>B70*COS(D70)</f>
+        <f t="shared" si="3"/>
         <v>222.7071511262603</v>
       </c>
     </row>
@@ -2731,15 +2744,15 @@
         <v>13</v>
       </c>
       <c r="D71" s="1">
-        <f>A71*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.43633231299858238</v>
       </c>
       <c r="E71" s="1">
-        <f>B71*SIN(D71)</f>
+        <f t="shared" si="2"/>
         <v>68.041540140252607</v>
       </c>
       <c r="F71" s="1">
-        <f>B71*COS(D71)</f>
+        <f t="shared" si="3"/>
         <v>145.91555371290065</v>
       </c>
     </row>
@@ -2754,15 +2767,15 @@
         <v>13</v>
       </c>
       <c r="D72" s="1">
-        <f>A72*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="E72" s="1">
-        <f>B72*SIN(D72)</f>
+        <f t="shared" si="2"/>
         <v>52.499999999999993</v>
       </c>
       <c r="F72" s="1">
-        <f>B72*COS(D72)</f>
+        <f t="shared" si="3"/>
         <v>90.93266739736606</v>
       </c>
     </row>
@@ -2777,15 +2790,15 @@
         <v>13</v>
       </c>
       <c r="D73" s="1">
-        <f>A73*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.6108652381980153</v>
       </c>
       <c r="E73" s="1">
-        <f>B73*SIN(D73)</f>
+        <f t="shared" si="2"/>
         <v>30.571624057510753</v>
       </c>
       <c r="F73" s="1">
-        <f>B73*COS(D73)</f>
+        <f t="shared" si="3"/>
         <v>43.660803960603261</v>
       </c>
     </row>
@@ -2800,15 +2813,15 @@
         <v>13</v>
       </c>
       <c r="D74" s="1">
-        <f>A74*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="E74" s="1">
-        <f>B74*SIN(D74)</f>
+        <f t="shared" si="2"/>
         <v>23.783141558401951</v>
       </c>
       <c r="F74" s="1">
-        <f>B74*COS(D74)</f>
+        <f t="shared" si="3"/>
         <v>28.343644395402187</v>
       </c>
     </row>
@@ -2823,15 +2836,15 @@
         <v>13</v>
       </c>
       <c r="D75" s="1">
-        <f>A75*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="E75" s="1">
-        <f>B75*SIN(D75)</f>
+        <f t="shared" si="2"/>
         <v>9.9702056147303182</v>
       </c>
       <c r="F75" s="1">
-        <f>B75*COS(D75)</f>
+        <f t="shared" si="3"/>
         <v>9.97020561473032</v>
       </c>
     </row>
@@ -2846,15 +2859,15 @@
         <v>13</v>
       </c>
       <c r="D76" s="1">
-        <f>A76*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="E76" s="1">
-        <f>B76*SIN(D76)</f>
+        <f t="shared" si="2"/>
         <v>3.83022221559489</v>
       </c>
       <c r="F76" s="1">
-        <f>B76*COS(D76)</f>
+        <f t="shared" si="3"/>
         <v>3.2139380484326967</v>
       </c>
     </row>
@@ -2869,15 +2882,15 @@
         <v>13</v>
       </c>
       <c r="D77" s="1">
-        <f>A77*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>0.95993108859688125</v>
       </c>
       <c r="E77" s="1">
-        <f>B77*SIN(D77)</f>
+        <f t="shared" si="2"/>
         <v>4.0957602214449587</v>
       </c>
       <c r="F77" s="1">
-        <f>B77*COS(D77)</f>
+        <f t="shared" si="3"/>
         <v>2.8678821817552307</v>
       </c>
     </row>
@@ -2892,15 +2905,15 @@
         <v>13</v>
       </c>
       <c r="D78" s="1">
-        <f>A78*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="E78" s="1">
-        <f>B78*SIN(D78)</f>
+        <f t="shared" si="2"/>
         <v>1.299038105676658</v>
       </c>
       <c r="F78" s="1">
-        <f>B78*COS(D78)</f>
+        <f t="shared" si="3"/>
         <v>0.75000000000000022</v>
       </c>
     </row>
@@ -2915,15 +2928,15 @@
         <v>13</v>
       </c>
       <c r="D79" s="1">
-        <f>A79*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.1344640137963142</v>
       </c>
       <c r="E79" s="1">
-        <f>B79*SIN(D79)</f>
+        <f t="shared" si="2"/>
         <v>0.90630778703664994</v>
       </c>
       <c r="F79" s="1">
-        <f>B79*COS(D79)</f>
+        <f t="shared" si="3"/>
         <v>0.42261826174069944</v>
       </c>
     </row>
@@ -2938,15 +2951,15 @@
         <v>13</v>
       </c>
       <c r="D80" s="1">
-        <f>A80*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="E80" s="1">
-        <f>B80*SIN(D80)</f>
+        <f t="shared" si="2"/>
         <v>2.25526228988618</v>
       </c>
       <c r="F80" s="1">
-        <f>B80*COS(D80)</f>
+        <f t="shared" si="3"/>
         <v>0.82084834398160511</v>
       </c>
     </row>
@@ -2961,15 +2974,15 @@
         <v>13</v>
       </c>
       <c r="D81" s="1">
-        <f>A81*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="E81" s="1">
-        <f>B81*SIN(D81)</f>
+        <f t="shared" si="2"/>
         <v>2.0284442352070435</v>
       </c>
       <c r="F81" s="1">
-        <f>B81*COS(D81)</f>
+        <f t="shared" si="3"/>
         <v>0.54351999471529355</v>
       </c>
     </row>
@@ -2984,15 +2997,15 @@
         <v>13</v>
       </c>
       <c r="D82" s="1">
-        <f>A82*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="E82" s="1">
-        <f>B82*SIN(D82)</f>
+        <f t="shared" si="2"/>
         <v>1.8711347307231951</v>
       </c>
       <c r="F82" s="1">
-        <f>B82*COS(D82)</f>
+        <f t="shared" si="3"/>
         <v>0.32993153756716775</v>
       </c>
     </row>
@@ -3007,15 +3020,15 @@
         <v>13</v>
       </c>
       <c r="D83" s="1">
-        <f>A83*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.4835298641951802</v>
       </c>
       <c r="E83" s="1">
-        <f>B83*SIN(D83)</f>
+        <f t="shared" si="2"/>
         <v>2.0920088659926659</v>
       </c>
       <c r="F83" s="1">
-        <f>B83*COS(D83)</f>
+        <f t="shared" si="3"/>
         <v>0.1830270597700821</v>
       </c>
     </row>
@@ -3030,15 +3043,15 @@
         <v>13</v>
       </c>
       <c r="D84" s="1">
-        <f>A84*PI()/180</f>
+        <f t="shared" si="1"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="E84" s="1">
-        <f>B84*SIN(D84)</f>
+        <f t="shared" si="2"/>
         <v>1.4</v>
       </c>
       <c r="F84" s="1">
-        <f>B84*COS(D84)</f>
+        <f t="shared" si="3"/>
         <v>8.5760391843603401E-17</v>
       </c>
     </row>
